--- a/results/explorations/List Seats by Year.xlsx
+++ b/results/explorations/List Seats by Year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/results/explorations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E917BAFE-7AB7-7C4A-9FE8-63A7C2BBD7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A3725-2C2C-8E4F-B352-599210B9FAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="8500" windowWidth="27640" windowHeight="17500" xr2:uid="{FDB991F3-65B7-2442-88EF-AF8858A1CE50}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{FDB991F3-65B7-2442-88EF-AF8858A1CE50}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategies" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,15 +392,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +717,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +753,7 @@
       <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="2"/>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -803,19 +799,19 @@
       <c r="K2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="33" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -853,7 +849,7 @@
       <c r="K3" s="18">
         <v>0</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="M3" t="s">
@@ -870,34 +866,34 @@
       <c r="B4" s="3">
         <v>0.48270000000000002</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4">
         <v>205</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4">
         <v>434</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>1.04E-2</v>
       </c>
       <c r="G4" s="1">
         <v>85</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4">
         <v>-1</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <v>1.4E-3</v>
       </c>
       <c r="J4" s="1">
         <v>84</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="29">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="M4" t="s">
@@ -917,34 +913,34 @@
       <c r="B5" s="3">
         <v>0.4919</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5">
         <v>201</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5">
         <v>434</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="G5" s="1">
         <v>94</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="27">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J5" s="1">
         <v>93</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="29">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="M5" t="s">
@@ -961,34 +957,34 @@
       <c r="B6" s="3">
         <v>0.53520000000000001</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6">
         <v>233</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6">
         <v>435</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G6" s="1">
         <v>85</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="J6" s="1">
         <v>85</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="29">
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="M6" t="s">
@@ -1005,34 +1001,34 @@
       <c r="B7" s="3">
         <v>0.54679999999999995</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7">
         <v>257</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7">
         <v>435</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7">
         <v>-19</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="G7" s="1">
         <v>73</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7">
         <v>-2</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="27">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="J7" s="1">
         <v>73</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7">
         <v>-2</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="M7" t="s">
@@ -1076,7 +1072,7 @@
       <c r="K8" s="18">
         <v>-6</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="30">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="M8"/>
@@ -1094,34 +1090,34 @@
       <c r="B9" s="3">
         <v>0.50849999999999995</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9">
         <v>201</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9">
         <v>435</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="G9" s="1">
         <v>102</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="27">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="J9" s="1">
         <v>102</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="29">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="M9"/>
@@ -1136,34 +1132,34 @@
       <c r="B10" s="3">
         <v>0.47439999999999999</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10">
         <v>188</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10">
         <v>435</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10">
         <v>18</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="G10" s="1">
         <v>95</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="27">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="J10" s="1">
         <v>97</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="M10"/>
@@ -1178,34 +1174,34 @@
       <c r="B11" s="3">
         <v>0.49530000000000002</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11">
         <v>194</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11">
         <v>435</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11">
         <v>21</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <v>4.9299999999999997E-2</v>
       </c>
       <c r="G11" s="1">
         <v>101</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="27">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="J11" s="1">
         <v>102</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="29">
         <v>2E-3</v>
       </c>
       <c r="M11"/>
@@ -1220,34 +1216,34 @@
       <c r="B12" s="3">
         <v>0.53539999999999999</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12">
         <v>235</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12">
         <v>434</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12">
         <v>-3</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="G12" s="1">
         <v>87</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12">
         <v>-1</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="27">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J12" s="1">
         <v>85</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="29">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="M12" t="s">
@@ -1291,7 +1287,7 @@
       <c r="K13" s="18">
         <v>0</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="30">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="M13"/>
@@ -1333,7 +1329,7 @@
       <c r="K14" s="21">
         <v>-1</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="31">
         <v>1.9E-3</v>
       </c>
       <c r="M14" t="s">
@@ -1490,6 +1486,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="I17" formula="1"/>
